--- a/QMU/APP/dataset/训练集.xlsx
+++ b/QMU/APP/dataset/训练集.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF320CB-8484-459D-B4F2-A8B18A7AB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC74EF8B-4CEB-4833-A128-D1BE1B7905AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一组" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>实验条件：落锤5kg，样品b炸药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>摆角为90，压力为296Mpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验样品b炸药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:Z8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +619,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F004DD4-A97E-4D16-B463-1EEC2E4FB05A}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,6 +950,12 @@
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -975,6 +985,15 @@
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -993,6 +1012,12 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
@@ -1020,14 +1045,14 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1175,7 +1200,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4162092-72B9-45B2-9C8A-90DB883E8B1E}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
